--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -95,10 +95,76 @@
     <t>01/06/2021</t>
   </si>
   <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Pillar Insurance Springfield</t>
+  </si>
+  <si>
+    <t>Check               2001</t>
+  </si>
+  <si>
+    <t>Devs:Devs Insurance</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
+  </si>
+  <si>
+    <t>02/04/2021</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2058 02/04/21 DBU05BHI</t>
+  </si>
+  <si>
+    <t>02/05/2021</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
+  </si>
+  <si>
+    <t>NAME.COM, INC DBT CRD 1221 02/06/21 DBH791RU</t>
+  </si>
+  <si>
+    <t>02/11/2021</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Self Interactive</t>
+  </si>
+  <si>
+    <t>Paid via QuickBooks Payments: Payment ID aoz5yxgx</t>
+  </si>
+  <si>
+    <t>Undeposited Funds</t>
+  </si>
+  <si>
+    <t>Accounts Receivable (A/R)</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>System-recorded deposit for QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>System-recorded fee for QuickBooks Payments. Fee-name: DiscountRateFee, fee-type: Daily.</t>
+  </si>
+  <si>
+    <t>Devs:Devs Payment Fees (Intuit)</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Monday, Feb 08, 2021 04:32:33 PM GMT-8</t>
+    <t>Tuesday, Mar 09, 2021 06:08:13 AM GMT-8</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -107,7 +173,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January 2021</t>
+    <t>January - February, 2021</t>
   </si>
 </sst>
 </file>
@@ -217,7 +283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -229,15 +295,15 @@
     <col min="4" max="4" width="8.59375" customWidth="true"/>
     <col min="5" max="5" width="7.734375" customWidth="true"/>
     <col min="6" max="6" width="32.65625" customWidth="true"/>
-    <col min="7" max="7" width="55.859375" customWidth="true"/>
-    <col min="8" max="8" width="24.921875" customWidth="true"/>
-    <col min="9" max="9" width="8.59375" customWidth="true"/>
-    <col min="10" max="10" width="8.59375" customWidth="true"/>
+    <col min="7" max="7" width="76.484375" customWidth="true"/>
+    <col min="8" max="8" width="27.5" customWidth="true"/>
+    <col min="9" max="9" width="9.453125" customWidth="true"/>
+    <col min="10" max="10" width="9.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -251,7 +317,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -265,7 +331,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -651,33 +717,631 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="6">
+      <c r="B34" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="I34" t="n" s="5">
-        <v>120.27</v>
-      </c>
-      <c r="J34" t="n" s="5">
-        <v>120.27</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="C34" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I35" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="I36" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J36" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I39" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="I40" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J40" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I43" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="I44" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J44" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
+      <c r="D46" t="n" s="2">
+        <v>2001.0</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" t="n" s="4">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I47" t="n" s="4">
+        <v>1148.0</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="I48" t="n" s="5">
+        <v>1148.0</v>
+      </c>
+      <c r="J48" t="n" s="5">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I51" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="I52" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J52" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I55" t="n" s="4">
+        <v>10.22</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="I56" t="n" s="5">
+        <v>10.22</v>
+      </c>
+      <c r="J56" t="n" s="5">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I59" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="I60" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J60" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I63" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="I64" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J64" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" t="n" s="4">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I67" t="n" s="4">
+        <v>232.48</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="I68" t="n" s="5">
+        <v>232.48</v>
+      </c>
+      <c r="J68" t="n" s="5">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I70" t="n" s="4">
+        <v>600.0</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" t="n" s="4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="I72" t="n" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="J72" t="n" s="5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I74" t="n" s="4">
+        <v>600.0</v>
+      </c>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" t="n" s="4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="I76" t="n" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="J76" t="n" s="5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I79" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="I80" t="n" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="J80" t="n" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="I82" t="n" s="5">
+        <v>2826.95</v>
+      </c>
+      <c r="J82" t="n" s="5">
+        <v>2826.95</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A85:J85"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -161,10 +161,40 @@
     <t>Devs:Devs Payment Fees (Intuit)</t>
   </si>
   <si>
+    <t>03/01/2021</t>
+  </si>
+  <si>
+    <t>03/02/2021</t>
+  </si>
+  <si>
+    <t>Pledge</t>
+  </si>
+  <si>
+    <t>Hearo Technologies</t>
+  </si>
+  <si>
+    <t>Tier 1 Sponsor benefits for 12 months</t>
+  </si>
+  <si>
+    <t>Devs Revenue:Devs Sponsorships</t>
+  </si>
+  <si>
+    <t>03/03/2021</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2340 03/03/21 DBJVUWQ6</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Tuesday, Mar 09, 2021 06:08:13 AM GMT-8</t>
+    <t>Tuesday, Apr 13, 2021 05:27:02 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -173,7 +203,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - February, 2021</t>
+    <t>January - March, 2021</t>
   </si>
 </sst>
 </file>
@@ -283,7 +313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -303,7 +333,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -317,7 +347,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -331,7 +361,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1315,33 +1345,477 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="6">
+      <c r="B82" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I82" t="n" s="5">
-        <v>2826.95</v>
-      </c>
-      <c r="J82" t="n" s="5">
-        <v>2826.95</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="7" t="s">
+      <c r="C82" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I83" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84">
+      <c r="I84" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J84" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I87" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88">
+      <c r="I88" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J88" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
+      <c r="C90" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I91" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92">
+      <c r="I92" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J92" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D94" t="n" s="2">
+        <v>1180.0</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I94" t="n" s="4">
+        <v>600.0</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" t="n" s="4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="I96" t="n" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="J96" t="n" s="5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I99" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100">
+      <c r="I100" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J100" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" t="n" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I103" t="n" s="4">
+        <v>9.42</v>
+      </c>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104">
+      <c r="I104" t="n" s="5">
+        <v>9.42</v>
+      </c>
+      <c r="J104" t="n" s="5">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I106" t="n" s="4">
+        <v>600.0</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" t="n" s="4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="I108" t="n" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="J108" t="n" s="5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I111" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112">
+      <c r="I112" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J112" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I115" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="I116" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J116" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="I118" t="n" s="5">
+        <v>4146.35</v>
+      </c>
+      <c r="J118" t="n" s="5">
+        <v>4146.35</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A121:J121"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -191,10 +191,73 @@
     <t>03/09/2021</t>
   </si>
   <si>
+    <t>04/01/2021</t>
+  </si>
+  <si>
+    <t>04/05/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0632 DBWLJUXT AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>04/09/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1258 DBJV2B7Q NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>Devs:Devs Office Supplies</t>
+  </si>
+  <si>
+    <t>04/15/2021</t>
+  </si>
+  <si>
+    <t>Meetup.com</t>
+  </si>
+  <si>
+    <t>DBT CRD 0609 DBJ5MLTB MEETUP ORG SUB 6M 6468384815 NY C#4443</t>
+  </si>
+  <si>
+    <t>04/23/2021</t>
+  </si>
+  <si>
+    <t>Jack Henry &amp; Associates</t>
+  </si>
+  <si>
+    <t>Tier 2 Sponsor benefits for 12 months</t>
+  </si>
+  <si>
+    <t>05/01/2021</t>
+  </si>
+  <si>
+    <t>05/03/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0136 DBXCN325 AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>Pizza Hut (Grant)</t>
+  </si>
+  <si>
+    <t>DBT CRD 1457 DBUCM PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t>Devs:Devs Member Meals</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Tuesday, Apr 13, 2021 05:27:02 AM GMT-7</t>
+    <t>Saturday, Jun 19, 2021 06:39:39 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -203,7 +266,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - March, 2021</t>
+    <t>January - May, 2021</t>
   </si>
 </sst>
 </file>
@@ -313,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -333,7 +396,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -347,7 +410,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -361,7 +424,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1789,33 +1852,873 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="6">
+      <c r="B118" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="I118" t="n" s="5">
-        <v>4146.35</v>
-      </c>
-      <c r="J118" t="n" s="5">
-        <v>4146.35</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="7" t="s">
+      <c r="C118" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I119" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120">
+      <c r="I120" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J120" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I123" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124">
+      <c r="I124" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J124" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G126" s="2"/>
+      <c r="H126" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I127" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128">
+      <c r="I128" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J128" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
+      <c r="C130" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G130" s="2"/>
+      <c r="H130" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I131" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132">
+      <c r="I132" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J132" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I134" s="3"/>
+      <c r="J134" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I135" t="n" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="I136" t="n" s="5">
+        <v>10.25</v>
+      </c>
+      <c r="J136" t="n" s="5">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G138" s="2"/>
+      <c r="H138" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I139" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140">
+      <c r="I140" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J140" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I142" s="3"/>
+      <c r="J142" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I143" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144">
+      <c r="I144" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J144" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" t="n" s="4">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I147" t="n" s="4">
+        <v>17.98</v>
+      </c>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="I148" t="n" s="5">
+        <v>17.98</v>
+      </c>
+      <c r="J148" t="n" s="5">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="G150" s="2"/>
+      <c r="H150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I150" s="3"/>
+      <c r="J150" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I151" t="n" s="4">
+        <v>98.94</v>
+      </c>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152">
+      <c r="I152" t="n" s="5">
+        <v>98.94</v>
+      </c>
+      <c r="J152" t="n" s="5">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D154" t="n" s="2">
+        <v>1181.0</v>
+      </c>
+      <c r="E154" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I154" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="J155" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="I156" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J156" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I158" s="3"/>
+      <c r="J158" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I159" t="n" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160">
+      <c r="I160" t="n" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="J160" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I162" s="3"/>
+      <c r="J162" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I163" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J163" s="3"/>
+    </row>
+    <row r="164">
+      <c r="I164" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J164" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I166" s="3"/>
+      <c r="J166" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I167" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168">
+      <c r="I168" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J168" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I170" s="3"/>
+      <c r="J170" t="n" s="4">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I171" t="n" s="4">
+        <v>9.98</v>
+      </c>
+      <c r="J171" s="3"/>
+    </row>
+    <row r="172">
+      <c r="I172" t="n" s="5">
+        <v>9.98</v>
+      </c>
+      <c r="J172" t="n" s="5">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G174" s="2"/>
+      <c r="H174" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I174" s="3"/>
+      <c r="J174" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I175" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J175" s="3"/>
+    </row>
+    <row r="176">
+      <c r="I176" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J176" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F178" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I178" s="3"/>
+      <c r="J178" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I179" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J179" s="3"/>
+    </row>
+    <row r="180">
+      <c r="I180" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J180" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G182" s="2"/>
+      <c r="H182" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" t="n" s="4">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I183" t="n" s="4">
+        <v>71.45</v>
+      </c>
+      <c r="J183" s="3"/>
+    </row>
+    <row r="184">
+      <c r="I184" t="n" s="5">
+        <v>71.45</v>
+      </c>
+      <c r="J184" t="n" s="5">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="6">
+        <v>80</v>
+      </c>
+      <c r="I186" t="n" s="5">
+        <v>6059.92</v>
+      </c>
+      <c r="J186" t="n" s="5">
+        <v>6059.92</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="A189:J189"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -254,10 +254,31 @@
     <t>Devs:Devs Member Meals</t>
   </si>
   <si>
+    <t>06/01/2021</t>
+  </si>
+  <si>
+    <t>06/04/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0835 DBVW5ODF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1454 DBIQT36L PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>06/09/2021</t>
+  </si>
+  <si>
+    <t>06/24/2021</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Saturday, Jun 19, 2021 06:39:39 AM GMT-7</t>
+    <t>Thursday, Jul 29, 2021 07:18:00 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -266,7 +287,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - May, 2021</t>
+    <t>January - June, 2021</t>
   </si>
 </sst>
 </file>
@@ -376,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -396,7 +417,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -410,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -424,7 +445,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2357,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" t="s" s="2">
@@ -2365,7 +2386,7 @@
       </c>
       <c r="I158" s="3"/>
       <c r="J158" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="159">
@@ -2377,30 +2398,30 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I159" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
       <c r="J159" s="3"/>
     </row>
     <row r="160">
       <c r="I160" t="n" s="5">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
       <c r="J160" t="n" s="5">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -2411,7 +2432,7 @@
       </c>
       <c r="G162" s="2"/>
       <c r="H162" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" t="n" s="4">
@@ -2426,11 +2447,9 @@
         <v>11</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="G163" s="2"/>
       <c r="H163" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I163" t="n" s="4">
         <v>20.0</v>
@@ -2450,14 +2469,14 @@
         <v>73</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" t="s" s="2">
@@ -2465,7 +2484,7 @@
       </c>
       <c r="I166" s="3"/>
       <c r="J166" t="n" s="4">
-        <v>20.0</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="167">
@@ -2476,44 +2495,46 @@
         <v>11</v>
       </c>
       <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
+      <c r="G167" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="H167" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I167" t="n" s="4">
-        <v>20.0</v>
+        <v>9.98</v>
       </c>
       <c r="J167" s="3"/>
     </row>
     <row r="168">
       <c r="I168" t="n" s="5">
-        <v>20.0</v>
+        <v>9.98</v>
       </c>
       <c r="J168" t="n" s="5">
-        <v>20.0</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G170" s="2"/>
       <c r="H170" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" t="n" s="4">
-        <v>9.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="171">
@@ -2525,30 +2546,30 @@
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>15</v>
       </c>
       <c r="I171" t="n" s="4">
-        <v>9.98</v>
+        <v>20.0</v>
       </c>
       <c r="J171" s="3"/>
     </row>
     <row r="172">
       <c r="I172" t="n" s="5">
-        <v>9.98</v>
+        <v>20.0</v>
       </c>
       <c r="J172" t="n" s="5">
-        <v>9.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -2559,7 +2580,7 @@
       </c>
       <c r="G174" s="2"/>
       <c r="H174" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" t="n" s="4">
@@ -2574,11 +2595,9 @@
         <v>11</v>
       </c>
       <c r="F175" s="2"/>
-      <c r="G175" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="G175" s="2"/>
       <c r="H175" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I175" t="n" s="4">
         <v>20.0</v>
@@ -2598,14 +2617,14 @@
         <v>76</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178" t="s" s="2">
@@ -2613,7 +2632,7 @@
       </c>
       <c r="I178" s="3"/>
       <c r="J178" t="n" s="4">
-        <v>20.0</v>
+        <v>71.45</v>
       </c>
     </row>
     <row r="179">
@@ -2624,44 +2643,46 @@
         <v>11</v>
       </c>
       <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
+      <c r="G179" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="H179" t="s" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="I179" t="n" s="4">
-        <v>20.0</v>
+        <v>71.45</v>
       </c>
       <c r="J179" s="3"/>
     </row>
     <row r="180">
       <c r="I180" t="n" s="5">
-        <v>20.0</v>
+        <v>71.45</v>
       </c>
       <c r="J180" t="n" s="5">
-        <v>20.0</v>
+        <v>71.45</v>
       </c>
     </row>
     <row r="182">
       <c r="B182" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
         <v>11</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" t="n" s="4">
-        <v>71.45</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="183">
@@ -2673,52 +2694,346 @@
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I183" t="n" s="4">
-        <v>71.45</v>
+        <v>20.0</v>
       </c>
       <c r="J183" s="3"/>
     </row>
     <row r="184">
       <c r="I184" t="n" s="5">
-        <v>71.45</v>
+        <v>20.0</v>
       </c>
       <c r="J184" t="n" s="5">
-        <v>71.45</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="6">
+      <c r="B186" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="I186" t="n" s="5">
-        <v>6059.92</v>
-      </c>
-      <c r="J186" t="n" s="5">
-        <v>6059.92</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="7" t="s">
+      <c r="C186" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F186" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I187" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J187" s="3"/>
+    </row>
+    <row r="188">
+      <c r="I188" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J188" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="B189"/>
-      <c r="C189"/>
-      <c r="D189"/>
-      <c r="E189"/>
-      <c r="F189"/>
-      <c r="G189"/>
-      <c r="H189"/>
-      <c r="I189"/>
-      <c r="J189"/>
+      <c r="C190" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G190" s="2"/>
+      <c r="H190" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="J190" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I191" t="n" s="4">
+        <v>10.22</v>
+      </c>
+      <c r="J191" s="3"/>
+    </row>
+    <row r="192">
+      <c r="I192" t="n" s="5">
+        <v>10.22</v>
+      </c>
+      <c r="J192" t="n" s="5">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G194" s="2"/>
+      <c r="H194" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I194" s="3"/>
+      <c r="J194" t="n" s="4">
+        <v>73.99</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I195" t="n" s="4">
+        <v>73.99</v>
+      </c>
+      <c r="J195" s="3"/>
+    </row>
+    <row r="196">
+      <c r="I196" t="n" s="5">
+        <v>73.99</v>
+      </c>
+      <c r="J196" t="n" s="5">
+        <v>73.99</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F198" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="H198" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I198" s="3"/>
+      <c r="J198" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I199" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J199" s="3"/>
+    </row>
+    <row r="200">
+      <c r="I200" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J200" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F202" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G202" s="2"/>
+      <c r="H202" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I203" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J203" s="3"/>
+    </row>
+    <row r="204">
+      <c r="I204" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J204" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="G206" s="2"/>
+      <c r="H206" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I206" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="J206" s="3"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I207" s="3"/>
+      <c r="J207" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="I208" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J208" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="6">
+        <v>87</v>
+      </c>
+      <c r="I210" t="n" s="5">
+        <v>7709.14</v>
+      </c>
+      <c r="J210" t="n" s="5">
+        <v>7709.14</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B213"/>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A189:J189"/>
+    <mergeCell ref="A213:J213"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -275,10 +275,40 @@
     <t>06/24/2021</t>
   </si>
   <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
+    <t>07/05/2021</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0416 DBXE0VQF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1113 DBBXKMPK PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t>07/12/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1137 DBV8SOB7 NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>07/27/2021</t>
+  </si>
+  <si>
+    <t>World Wide Technology</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Thursday, Jul 29, 2021 07:18:00 AM GMT-7</t>
+    <t>Sunday, Aug 08, 2021 10:22:36 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -287,7 +317,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - June, 2021</t>
+    <t>January - July, 2021</t>
   </si>
 </sst>
 </file>
@@ -397,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -417,7 +447,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -431,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -445,7 +475,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3007,33 +3037,429 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="6">
+      <c r="B210" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I210" t="n" s="5">
-        <v>7709.14</v>
-      </c>
-      <c r="J210" t="n" s="5">
-        <v>7709.14</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="7" t="s">
+      <c r="C210" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F210" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G210" s="2"/>
+      <c r="H210" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I210" s="3"/>
+      <c r="J210" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F211" s="2"/>
+      <c r="G211" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I211" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J211" s="3"/>
+    </row>
+    <row r="212">
+      <c r="I212" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J212" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C214" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F214" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G214" s="2"/>
+      <c r="H214" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I214" s="3"/>
+      <c r="J214" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I215" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J215" s="3"/>
+    </row>
+    <row r="216">
+      <c r="I216" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J216" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B213"/>
-      <c r="C213"/>
-      <c r="D213"/>
-      <c r="E213"/>
-      <c r="F213"/>
-      <c r="G213"/>
-      <c r="H213"/>
-      <c r="I213"/>
-      <c r="J213"/>
+      <c r="C218" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F218" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G218" s="2"/>
+      <c r="H218" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I218" s="3"/>
+      <c r="J218" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I219" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J219" s="3"/>
+    </row>
+    <row r="220">
+      <c r="I220" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J220" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F222" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G222" s="2"/>
+      <c r="H222" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I222" s="3"/>
+      <c r="J222" t="n" s="4">
+        <v>9.96</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I223" t="n" s="4">
+        <v>9.96</v>
+      </c>
+      <c r="J223" s="3"/>
+    </row>
+    <row r="224">
+      <c r="I224" t="n" s="5">
+        <v>9.96</v>
+      </c>
+      <c r="J224" t="n" s="5">
+        <v>9.96</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F226" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G226" s="2"/>
+      <c r="H226" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I226" s="3"/>
+      <c r="J226" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I227" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J227" s="3"/>
+    </row>
+    <row r="228">
+      <c r="I228" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J228" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F230" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G230" s="2"/>
+      <c r="H230" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I230" s="3"/>
+      <c r="J230" t="n" s="4">
+        <v>122.78</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I231" t="n" s="4">
+        <v>122.78</v>
+      </c>
+      <c r="J231" s="3"/>
+    </row>
+    <row r="232">
+      <c r="I232" t="n" s="5">
+        <v>122.78</v>
+      </c>
+      <c r="J232" t="n" s="5">
+        <v>122.78</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I234" s="3"/>
+      <c r="J234" t="n" s="4">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I235" t="n" s="4">
+        <v>39.96</v>
+      </c>
+      <c r="J235" s="3"/>
+    </row>
+    <row r="236">
+      <c r="I236" t="n" s="5">
+        <v>39.96</v>
+      </c>
+      <c r="J236" t="n" s="5">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D238" t="n" s="2">
+        <v>1182.0</v>
+      </c>
+      <c r="E238" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F238" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="G238" s="2"/>
+      <c r="H238" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I238" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="J238" s="3"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I239" s="3"/>
+      <c r="J239" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="I240" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J240" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="I242" t="n" s="5">
+        <v>9461.84</v>
+      </c>
+      <c r="J242" t="n" s="5">
+        <v>9461.84</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B245"/>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A213:J213"/>
+    <mergeCell ref="A245:J245"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -305,10 +305,61 @@
     <t>World Wide Technology</t>
   </si>
   <si>
+    <t>08/01/2021</t>
+  </si>
+  <si>
+    <t>08/02/2021</t>
+  </si>
+  <si>
+    <t>08/03/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 2013 DBV1DGK3 AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>08/05/2021</t>
+  </si>
+  <si>
+    <t>08/06/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1215 DBYIB8HS PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t>08/18/2021</t>
+  </si>
+  <si>
+    <t>O'reilly Auto</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Discounts given</t>
+  </si>
+  <si>
+    <t>08/30/2021</t>
+  </si>
+  <si>
+    <t>Paid via QuickBooks Payments: Payment ID MU0026764343</t>
+  </si>
+  <si>
+    <t>08/31/2021</t>
+  </si>
+  <si>
+    <t>Printful</t>
+  </si>
+  <si>
+    <t>DBT CRD 0107 DB4JV2Y1 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
+    <t>Supplies &amp; Materials</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Sunday, Aug 08, 2021 10:22:36 AM GMT-7</t>
+    <t>Thursday, Sep 30, 2021 09:08:19 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -317,7 +368,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - July, 2021</t>
+    <t>January - August, 2021</t>
   </si>
 </sst>
 </file>
@@ -427,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -441,13 +492,13 @@
     <col min="6" max="6" width="32.65625" customWidth="true"/>
     <col min="7" max="7" width="76.484375" customWidth="true"/>
     <col min="8" max="8" width="27.5" customWidth="true"/>
-    <col min="9" max="9" width="9.453125" customWidth="true"/>
-    <col min="10" max="10" width="9.453125" customWidth="true"/>
+    <col min="9" max="9" width="10.3125" customWidth="true"/>
+    <col min="10" max="10" width="10.3125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -461,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -475,7 +526,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3433,33 +3484,604 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="6">
+      <c r="B242" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="I242" t="n" s="5">
-        <v>9461.84</v>
-      </c>
-      <c r="J242" t="n" s="5">
-        <v>9461.84</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="7" t="s">
+      <c r="C242" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F242" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G242" s="2"/>
+      <c r="H242" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I242" s="3"/>
+      <c r="J242" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I243" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J243" s="3"/>
+    </row>
+    <row r="244">
+      <c r="I244" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J244" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B245"/>
-      <c r="C245"/>
-      <c r="D245"/>
-      <c r="E245"/>
-      <c r="F245"/>
-      <c r="G245"/>
-      <c r="H245"/>
-      <c r="I245"/>
-      <c r="J245"/>
+      <c r="C246" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F246" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G246" s="2"/>
+      <c r="H246" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I246" s="3"/>
+      <c r="J246" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I247" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J247" s="3"/>
+    </row>
+    <row r="248">
+      <c r="I248" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J248" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C250" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F250" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G250" s="2"/>
+      <c r="H250" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I250" s="3"/>
+      <c r="J250" t="n" s="4">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F251" s="2"/>
+      <c r="G251" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="H251" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I251" t="n" s="4">
+        <v>10.26</v>
+      </c>
+      <c r="J251" s="3"/>
+    </row>
+    <row r="252">
+      <c r="I252" t="n" s="5">
+        <v>10.26</v>
+      </c>
+      <c r="J252" t="n" s="5">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C254" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F254" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G254" s="2"/>
+      <c r="H254" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I254" s="3"/>
+      <c r="J254" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F255" s="2"/>
+      <c r="G255" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H255" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I255" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J255" s="3"/>
+    </row>
+    <row r="256">
+      <c r="I256" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J256" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C258" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D258" s="2"/>
+      <c r="E258" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F258" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G258" s="2"/>
+      <c r="H258" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I258" s="3"/>
+      <c r="J258" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I259" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J259" s="3"/>
+    </row>
+    <row r="260">
+      <c r="I260" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J260" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C262" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D262" s="2"/>
+      <c r="E262" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F262" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G262" s="2"/>
+      <c r="H262" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I262" s="3"/>
+      <c r="J262" t="n" s="4">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F263" s="2"/>
+      <c r="G263" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="H263" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I263" t="n" s="4">
+        <v>60.91</v>
+      </c>
+      <c r="J263" s="3"/>
+    </row>
+    <row r="264">
+      <c r="I264" t="n" s="5">
+        <v>60.91</v>
+      </c>
+      <c r="J264" t="n" s="5">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C266" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D266" t="n" s="2">
+        <v>1183.0</v>
+      </c>
+      <c r="E266" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F266" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="G266" s="2"/>
+      <c r="H266" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I266" t="n" s="4">
+        <v>1400.0</v>
+      </c>
+      <c r="J266" s="3"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F267" s="2"/>
+      <c r="G267" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H267" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I267" s="3"/>
+      <c r="J267" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F268" s="2"/>
+      <c r="G268" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="H268" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="I268" t="n" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="J268" s="3"/>
+    </row>
+    <row r="269">
+      <c r="I269" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J269" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C271" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D271" s="2"/>
+      <c r="E271" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F271" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="G271" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="H271" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I271" t="n" s="4">
+        <v>1400.0</v>
+      </c>
+      <c r="J271" s="3"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I272" s="3"/>
+      <c r="J272" t="n" s="4">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="I273" t="n" s="5">
+        <v>1400.0</v>
+      </c>
+      <c r="J273" t="n" s="5">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D275" s="2"/>
+      <c r="E275" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F275" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="G275" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H275" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I275" t="n" s="4">
+        <v>1400.0</v>
+      </c>
+      <c r="J275" s="3"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F276" s="2"/>
+      <c r="G276" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="H276" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I276" s="3"/>
+      <c r="J276" t="n" s="4">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="I277" t="n" s="5">
+        <v>1400.0</v>
+      </c>
+      <c r="J277" t="n" s="5">
+        <v>1400.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D279" s="2"/>
+      <c r="E279" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F279" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G279" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H279" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I279" s="3"/>
+      <c r="J279" t="n" s="4">
+        <v>40.85</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F280" s="2"/>
+      <c r="G280" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H280" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I280" t="n" s="4">
+        <v>40.85</v>
+      </c>
+      <c r="J280" s="3"/>
+    </row>
+    <row r="281">
+      <c r="I281" t="n" s="5">
+        <v>40.85</v>
+      </c>
+      <c r="J281" t="n" s="5">
+        <v>40.85</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D283" s="2"/>
+      <c r="E283" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F283" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="G283" s="2"/>
+      <c r="H283" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I283" s="3"/>
+      <c r="J283" t="n" s="4">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F284" s="2"/>
+      <c r="G284" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="H284" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="I284" t="n" s="4">
+        <v>17.99</v>
+      </c>
+      <c r="J284" s="3"/>
+    </row>
+    <row r="285">
+      <c r="I285" t="n" s="5">
+        <v>17.99</v>
+      </c>
+      <c r="J285" t="n" s="5">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="6">
+        <v>114</v>
+      </c>
+      <c r="I287" t="n" s="5">
+        <v>13971.85</v>
+      </c>
+      <c r="J287" t="n" s="5">
+        <v>13971.85</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B290"/>
+      <c r="C290"/>
+      <c r="D290"/>
+      <c r="E290"/>
+      <c r="F290"/>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290"/>
+      <c r="J290"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A245:J245"/>
+    <mergeCell ref="A290:J290"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -356,10 +356,55 @@
     <t>Supplies &amp; Materials</t>
   </si>
   <si>
+    <t>09/01/2021</t>
+  </si>
+  <si>
+    <t>09/02/2021</t>
+  </si>
+  <si>
+    <t>Stripe Payments</t>
+  </si>
+  <si>
+    <t>TRANSFER STRIPE XXXX5600 ID #ST-K4C0F8V6O2C9 21/09/02 TRACE #XXXX2159</t>
+  </si>
+  <si>
+    <t>Merchandise</t>
+  </si>
+  <si>
+    <t>09/03/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1029 DBYJVTCE PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
+    <t>Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>DBT CRD 1555 DBCOZZ96 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1538 DBYWCAWJ PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t>09/05/2021</t>
+  </si>
+  <si>
+    <t>09/07/2021</t>
+  </si>
+  <si>
+    <t>TRANSFER STRIPE XXXX5600 ID #ST-V4U7B5O0N3G1 21/09/07 TRACE #XXXX6827</t>
+  </si>
+  <si>
+    <t>DBT CRD 0439 DBL678QX AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 2108 DBUFR6AX MSFT E0100FP4UY MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Thursday, Sep 30, 2021 09:08:19 AM GMT-7</t>
+    <t>Friday, Oct 01, 2021 09:05:38 AM GMT-7</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -368,7 +413,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - August, 2021</t>
+    <t>January - September, 2021</t>
   </si>
 </sst>
 </file>
@@ -478,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J290"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -498,7 +543,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -512,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -526,7 +571,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -4055,33 +4100,531 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="6">
+      <c r="B287" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="I287" t="n" s="5">
-        <v>13971.85</v>
-      </c>
-      <c r="J287" t="n" s="5">
-        <v>13971.85</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="7" t="s">
+      <c r="C287" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F287" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G287" s="2"/>
+      <c r="H287" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I287" s="3"/>
+      <c r="J287" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+      <c r="E288" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F288" s="2"/>
+      <c r="G288" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H288" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I288" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J288" s="3"/>
+    </row>
+    <row r="289">
+      <c r="I289" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J289" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F291" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G291" s="2"/>
+      <c r="H291" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I291" s="3"/>
+      <c r="J291" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I292" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J292" s="3"/>
+    </row>
+    <row r="293">
+      <c r="I293" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J293" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="B290"/>
-      <c r="C290"/>
-      <c r="D290"/>
-      <c r="E290"/>
-      <c r="F290"/>
-      <c r="G290"/>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
+      <c r="C295" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F295" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="G295" s="2"/>
+      <c r="H295" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I295" t="n" s="4">
+        <v>22.02</v>
+      </c>
+      <c r="J295" s="3"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F296" s="2"/>
+      <c r="G296" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="H296" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="I296" s="3"/>
+      <c r="J296" t="n" s="4">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="I297" t="n" s="5">
+        <v>22.02</v>
+      </c>
+      <c r="J297" t="n" s="5">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C299" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D299" s="2"/>
+      <c r="E299" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F299" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="G299" s="2"/>
+      <c r="H299" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I299" s="3"/>
+      <c r="J299" t="n" s="4">
+        <v>35.88</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F300" s="2"/>
+      <c r="G300" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="H300" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="I300" t="n" s="4">
+        <v>35.88</v>
+      </c>
+      <c r="J300" s="3"/>
+    </row>
+    <row r="301">
+      <c r="I301" t="n" s="5">
+        <v>35.88</v>
+      </c>
+      <c r="J301" t="n" s="5">
+        <v>35.88</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C303" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D303" s="2"/>
+      <c r="E303" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F303" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="G303" s="2"/>
+      <c r="H303" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I303" s="3"/>
+      <c r="J303" t="n" s="4">
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F304" s="2"/>
+      <c r="G304" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="H304" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="I304" t="n" s="4">
+        <v>35.53</v>
+      </c>
+      <c r="J304" s="3"/>
+    </row>
+    <row r="305">
+      <c r="I305" t="n" s="5">
+        <v>35.53</v>
+      </c>
+      <c r="J305" t="n" s="5">
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C307" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D307" s="2"/>
+      <c r="E307" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F307" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G307" s="2"/>
+      <c r="H307" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I307" s="3"/>
+      <c r="J307" t="n" s="4">
+        <v>86.37</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F308" s="2"/>
+      <c r="G308" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="H308" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I308" t="n" s="4">
+        <v>86.37</v>
+      </c>
+      <c r="J308" s="3"/>
+    </row>
+    <row r="309">
+      <c r="I309" t="n" s="5">
+        <v>86.37</v>
+      </c>
+      <c r="J309" t="n" s="5">
+        <v>86.37</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C311" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D311" s="2"/>
+      <c r="E311" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F311" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G311" s="2"/>
+      <c r="H311" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I311" s="3"/>
+      <c r="J311" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F312" s="2"/>
+      <c r="G312" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H312" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I312" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J312" s="3"/>
+    </row>
+    <row r="313">
+      <c r="I313" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J313" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C315" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D315" s="2"/>
+      <c r="E315" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F315" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="G315" s="2"/>
+      <c r="H315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I315" t="n" s="4">
+        <v>92.09</v>
+      </c>
+      <c r="J315" s="3"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F316" s="2"/>
+      <c r="G316" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="H316" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="I316" s="3"/>
+      <c r="J316" t="n" s="4">
+        <v>92.09</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="I317" t="n" s="5">
+        <v>92.09</v>
+      </c>
+      <c r="J317" t="n" s="5">
+        <v>92.09</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C319" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D319" s="2"/>
+      <c r="E319" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F319" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G319" s="2"/>
+      <c r="H319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I319" s="3"/>
+      <c r="J319" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+      <c r="E320" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F320" s="2"/>
+      <c r="G320" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I320" t="n" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="J320" s="3"/>
+    </row>
+    <row r="321">
+      <c r="I321" t="n" s="5">
+        <v>10.25</v>
+      </c>
+      <c r="J321" t="n" s="5">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F323" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G323" s="2"/>
+      <c r="H323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I323" s="3"/>
+      <c r="J323" t="n" s="4">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F324" s="2"/>
+      <c r="G324" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="H324" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I324" t="n" s="4">
+        <v>27.58</v>
+      </c>
+      <c r="J324" s="3"/>
+    </row>
+    <row r="325">
+      <c r="I325" t="n" s="5">
+        <v>27.58</v>
+      </c>
+      <c r="J325" t="n" s="5">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="6">
+        <v>129</v>
+      </c>
+      <c r="I327" t="n" s="5">
+        <v>14341.57</v>
+      </c>
+      <c r="J327" t="n" s="5">
+        <v>14341.57</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B330"/>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330"/>
+      <c r="G330"/>
+      <c r="H330"/>
+      <c r="I330"/>
+      <c r="J330"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A290:J290"/>
+    <mergeCell ref="A330:J330"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -401,10 +401,106 @@
     <t>DBT CRD 2108 DBUFR6AX MSFT E0100FP4UY MSBILL.INFO WA C#4443</t>
   </si>
   <si>
+    <t>09/30/2021</t>
+  </si>
+  <si>
+    <t>Name.com</t>
+  </si>
+  <si>
+    <t>DBT CRD 1154 DBV1HGGF NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>10/02/2021</t>
+  </si>
+  <si>
+    <t>1Password</t>
+  </si>
+  <si>
+    <t>1Password Families Plan (Annual)</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1845 DBW3CHBN AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
+  </si>
+  <si>
+    <t>10/06/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 2329 DBZHPKLO MSFT E0100G10O0 MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
+    <t>10/08/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1349 DBFJUP4X PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t>10/15/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0609 DBN4DSKH MEETUP ORG SUB 6M NEW YORK NY C#4443</t>
+  </si>
+  <si>
+    <t>10/18/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1133 DBVR2GLC NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>11/01/2021</t>
+  </si>
+  <si>
+    <t>11/03/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 2156 DBJD76UR AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>11/05/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1337 DBKSBS2N PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t>11/08/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1148 DBBLNGIR NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>2012 39FLWQFG MICROSOFT WWW.MICROSOFT.COM REDMOND WA C#4443</t>
+  </si>
+  <si>
+    <t>11/17/2021</t>
+  </si>
+  <si>
+    <t>Mostly Serious</t>
+  </si>
+  <si>
+    <t>11/29/2021</t>
+  </si>
+  <si>
+    <t>Paid via QuickBooks Payments: Payment ID 074219</t>
+  </si>
+  <si>
+    <t>11/30/2021</t>
+  </si>
+  <si>
+    <t>TRAN FEE INTUIT 71567085 9215986202 ID #524771999141966 21000026552016</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Friday, Oct 01, 2021 09:05:38 AM GMT-7</t>
+    <t>Monday, Dec 13, 2021 07:12:10 PM GMT-8</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -413,7 +509,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - September, 2021</t>
+    <t>January - November, 2021</t>
   </si>
 </sst>
 </file>
@@ -523,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J422"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -543,7 +639,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -557,7 +653,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -571,7 +667,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -4598,33 +4694,1181 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="6">
+      <c r="B327" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="I327" t="n" s="5">
-        <v>14341.57</v>
-      </c>
-      <c r="J327" t="n" s="5">
-        <v>14341.57</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="7" t="s">
+      <c r="C327" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F327" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="B330"/>
-      <c r="C330"/>
-      <c r="D330"/>
-      <c r="E330"/>
-      <c r="F330"/>
-      <c r="G330"/>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
+      <c r="G327" s="2"/>
+      <c r="H327" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I327" s="3"/>
+      <c r="J327" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F328" s="2"/>
+      <c r="G328" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="H328" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I328" t="n" s="4">
+        <v>19.98</v>
+      </c>
+      <c r="J328" s="3"/>
+    </row>
+    <row r="329">
+      <c r="I329" t="n" s="5">
+        <v>19.98</v>
+      </c>
+      <c r="J329" t="n" s="5">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C331" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D331" s="2"/>
+      <c r="E331" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F331" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G331" s="2"/>
+      <c r="H331" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I331" s="3"/>
+      <c r="J331" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+      <c r="E332" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F332" s="2"/>
+      <c r="G332" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H332" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I332" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J332" s="3"/>
+    </row>
+    <row r="333">
+      <c r="I333" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J333" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C335" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F335" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G335" s="2"/>
+      <c r="H335" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I335" s="3"/>
+      <c r="J335" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+      <c r="H336" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I336" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J336" s="3"/>
+    </row>
+    <row r="337">
+      <c r="I337" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J337" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C339" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D339" s="2"/>
+      <c r="E339" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F339" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="G339" s="2"/>
+      <c r="H339" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I339" s="3"/>
+      <c r="J339" t="n" s="4">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F340" s="2"/>
+      <c r="G340" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="H340" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I340" t="n" s="4">
+        <v>59.85</v>
+      </c>
+      <c r="J340" s="3"/>
+    </row>
+    <row r="341">
+      <c r="I341" t="n" s="5">
+        <v>59.85</v>
+      </c>
+      <c r="J341" t="n" s="5">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C343" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D343" s="2"/>
+      <c r="E343" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F343" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G343" s="2"/>
+      <c r="H343" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I343" s="3"/>
+      <c r="J343" t="n" s="4">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F344" s="2"/>
+      <c r="G344" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="H344" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I344" t="n" s="4">
+        <v>9.94</v>
+      </c>
+      <c r="J344" s="3"/>
+    </row>
+    <row r="345">
+      <c r="I345" t="n" s="5">
+        <v>9.94</v>
+      </c>
+      <c r="J345" t="n" s="5">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C347" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D347" s="2"/>
+      <c r="E347" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F347" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="G347" s="2"/>
+      <c r="H347" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I347" s="3"/>
+      <c r="J347" t="n" s="4">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+      <c r="E348" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+      <c r="H348" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I348" t="n" s="4">
+        <v>59.85</v>
+      </c>
+      <c r="J348" s="3"/>
+    </row>
+    <row r="349">
+      <c r="I349" t="n" s="5">
+        <v>59.85</v>
+      </c>
+      <c r="J349" t="n" s="5">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C351" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F351" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G351" s="2"/>
+      <c r="H351" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I351" s="3"/>
+      <c r="J351" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F352" s="2"/>
+      <c r="G352" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I352" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J352" s="3"/>
+    </row>
+    <row r="353">
+      <c r="I353" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J353" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C355" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D355" s="2"/>
+      <c r="E355" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F355" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G355" s="2"/>
+      <c r="H355" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I355" s="3"/>
+      <c r="J355" t="n" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F356" s="2"/>
+      <c r="G356" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I356" t="n" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="J356" s="3"/>
+    </row>
+    <row r="357">
+      <c r="I357" t="n" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="J357" t="n" s="5">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C359" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D359" s="2"/>
+      <c r="E359" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G359" s="2"/>
+      <c r="H359" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I359" s="3"/>
+      <c r="J359" t="n" s="4">
+        <v>62.03</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F360" s="2"/>
+      <c r="G360" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="H360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I360" t="n" s="4">
+        <v>62.03</v>
+      </c>
+      <c r="J360" s="3"/>
+    </row>
+    <row r="361">
+      <c r="I361" t="n" s="5">
+        <v>62.03</v>
+      </c>
+      <c r="J361" t="n" s="5">
+        <v>62.03</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C363" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F363" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="G363" s="2"/>
+      <c r="H363" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I363" s="3"/>
+      <c r="J363" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F364" s="2"/>
+      <c r="G364" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I364" t="n" s="4">
+        <v>98.94</v>
+      </c>
+      <c r="J364" s="3"/>
+    </row>
+    <row r="365">
+      <c r="I365" t="n" s="5">
+        <v>98.94</v>
+      </c>
+      <c r="J365" t="n" s="5">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C367" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D367" s="2"/>
+      <c r="E367" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F367" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="G367" s="2"/>
+      <c r="H367" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I367" s="3"/>
+      <c r="J367" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F368" s="2"/>
+      <c r="G368" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I368" t="n" s="4">
+        <v>19.98</v>
+      </c>
+      <c r="J368" s="3"/>
+    </row>
+    <row r="369">
+      <c r="I369" t="n" s="5">
+        <v>19.98</v>
+      </c>
+      <c r="J369" t="n" s="5">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C371" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D371" s="2"/>
+      <c r="E371" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F371" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G371" s="2"/>
+      <c r="H371" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I371" s="3"/>
+      <c r="J371" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F372" s="2"/>
+      <c r="G372" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I372" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J372" s="3"/>
+    </row>
+    <row r="373">
+      <c r="I373" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J373" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C375" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F375" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G375" s="2"/>
+      <c r="H375" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I375" s="3"/>
+      <c r="J375" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+      <c r="H376" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I376" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J376" s="3"/>
+    </row>
+    <row r="377">
+      <c r="I377" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J377" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C379" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D379" s="2"/>
+      <c r="E379" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F379" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G379" s="2"/>
+      <c r="H379" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I379" s="3"/>
+      <c r="J379" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F380" s="2"/>
+      <c r="G380" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I380" t="n" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="J380" s="3"/>
+    </row>
+    <row r="381">
+      <c r="I381" t="n" s="5">
+        <v>10.25</v>
+      </c>
+      <c r="J381" t="n" s="5">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C383" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D383" s="2"/>
+      <c r="E383" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F383" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G383" s="2"/>
+      <c r="H383" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I383" s="3"/>
+      <c r="J383" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+      <c r="E384" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F384" s="2"/>
+      <c r="G384" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I384" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J384" s="3"/>
+    </row>
+    <row r="385">
+      <c r="I385" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J385" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C387" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D387" s="2"/>
+      <c r="E387" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G387" s="2"/>
+      <c r="H387" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I387" s="3"/>
+      <c r="J387" t="n" s="4">
+        <v>69.36</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+      <c r="E388" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F388" s="2"/>
+      <c r="G388" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I388" t="n" s="4">
+        <v>69.36</v>
+      </c>
+      <c r="J388" s="3"/>
+    </row>
+    <row r="389">
+      <c r="I389" t="n" s="5">
+        <v>69.36</v>
+      </c>
+      <c r="J389" t="n" s="5">
+        <v>69.36</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C391" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D391" s="2"/>
+      <c r="E391" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F391" s="2"/>
+      <c r="G391" s="2"/>
+      <c r="H391" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I391" s="3"/>
+      <c r="J391" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F392" s="2"/>
+      <c r="G392" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I392" t="n" s="4">
+        <v>19.98</v>
+      </c>
+      <c r="J392" s="3"/>
+    </row>
+    <row r="393">
+      <c r="I393" t="n" s="5">
+        <v>19.98</v>
+      </c>
+      <c r="J393" t="n" s="5">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C395" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F395" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G395" s="2"/>
+      <c r="H395" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I395" s="3"/>
+      <c r="J395" t="n" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="E396" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F396" s="2"/>
+      <c r="G396" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I396" t="n" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="J396" s="3"/>
+    </row>
+    <row r="397">
+      <c r="I397" t="n" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="J397" t="n" s="5">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="B399" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C399" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D399" t="n" s="2">
+        <v>1184.0</v>
+      </c>
+      <c r="E399" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F399" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="G399" s="2"/>
+      <c r="H399" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I399" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="J399" s="3"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+      <c r="E400" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F400" s="2"/>
+      <c r="G400" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I400" s="3"/>
+      <c r="J400" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="I401" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J401" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C403" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D403" s="2"/>
+      <c r="E403" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F403" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="G403" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="H403" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I403" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="J403" s="3"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+      <c r="E404" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
+      <c r="H404" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I404" s="3"/>
+      <c r="J404" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="I405" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J405" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C407" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D407" s="2"/>
+      <c r="E407" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F407" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="G407" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H407" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I407" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="J407" s="3"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+      <c r="E408" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F408" s="2"/>
+      <c r="G408" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="H408" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I408" s="3"/>
+      <c r="J408" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="I409" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J409" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="B411" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C411" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D411" s="2"/>
+      <c r="E411" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F411" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G411" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I411" s="3"/>
+      <c r="J411" t="n" s="4">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F412" s="2"/>
+      <c r="G412" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I412" t="n" s="4">
+        <v>43.75</v>
+      </c>
+      <c r="J412" s="3"/>
+    </row>
+    <row r="413">
+      <c r="I413" t="n" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="J413" t="n" s="5">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C415" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D415" s="2"/>
+      <c r="E415" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F415" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G415" s="2"/>
+      <c r="H415" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I415" s="3"/>
+      <c r="J415" t="n" s="4">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F416" s="2"/>
+      <c r="G416" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="H416" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I416" t="n" s="4">
+        <v>43.75</v>
+      </c>
+      <c r="J416" s="3"/>
+    </row>
+    <row r="417">
+      <c r="I417" t="n" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="J417" t="n" s="5">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="6">
+        <v>161</v>
+      </c>
+      <c r="I419" t="n" s="5">
+        <v>19529.23</v>
+      </c>
+      <c r="J419" t="n" s="5">
+        <v>19529.23</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B422"/>
+      <c r="C422"/>
+      <c r="D422"/>
+      <c r="E422"/>
+      <c r="F422"/>
+      <c r="G422"/>
+      <c r="H422"/>
+      <c r="I422"/>
+      <c r="J422"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A330:J330"/>
+    <mergeCell ref="A422:J422"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>

--- a/2021-sgfdevs-journal.xlsx
+++ b/2021-sgfdevs-journal.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Journal" r:id="rId3" sheetId="1"/>
+    <sheet name="Journal" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -497,10 +497,46 @@
     <t>TRAN FEE INTUIT 71567085 9215986202 ID #524771999141966 21000026552016</t>
   </si>
   <si>
+    <t>12/01/2021</t>
+  </si>
+  <si>
+    <t>12/03/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 0609 DBYNKASC AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>Andy B's Springfield</t>
+  </si>
+  <si>
+    <t>DBT CRD 1759 DBHTWK9F ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1839 DBLG9620 ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1903 DBUJB327 ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>DBT CRD 1949 DBTQ82B4 MSFT E0100GPXMG MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
+    <t>12/17/2021</t>
+  </si>
+  <si>
+    <t>Paid via QuickBooks Payments: Payment ID 0688CE</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Monday, Dec 13, 2021 07:12:10 PM GMT-8</t>
+    <t>Sunday, Jan 16, 2022 06:42:03 PM GMT-8</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -509,7 +545,7 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>January - November, 2021</t>
+    <t>January - December 2021</t>
   </si>
 </sst>
 </file>
@@ -619,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J422"/>
+  <dimension ref="A1:J466"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -639,7 +675,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -653,7 +689,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -667,7 +703,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -5842,33 +5878,585 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="s" s="6">
+      <c r="B419" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="I419" t="n" s="5">
-        <v>19529.23</v>
-      </c>
-      <c r="J419" t="n" s="5">
-        <v>19529.23</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="7" t="s">
+      <c r="C419" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D419" s="2"/>
+      <c r="E419" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F419" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G419" s="2"/>
+      <c r="H419" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I419" s="3"/>
+      <c r="J419" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F420" s="2"/>
+      <c r="G420" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H420" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I420" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J420" s="3"/>
+    </row>
+    <row r="421">
+      <c r="I421" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J421" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="B423" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C423" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D423" s="2"/>
+      <c r="E423" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F423" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G423" s="2"/>
+      <c r="H423" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I423" s="3"/>
+      <c r="J423" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+      <c r="E424" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F424" s="2"/>
+      <c r="G424" s="2"/>
+      <c r="H424" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I424" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J424" s="3"/>
+    </row>
+    <row r="425">
+      <c r="I425" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J425" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="B427" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="B422"/>
-      <c r="C422"/>
-      <c r="D422"/>
-      <c r="E422"/>
-      <c r="F422"/>
-      <c r="G422"/>
-      <c r="H422"/>
-      <c r="I422"/>
-      <c r="J422"/>
+      <c r="C427" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D427" s="2"/>
+      <c r="E427" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F427" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G427" s="2"/>
+      <c r="H427" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I427" s="3"/>
+      <c r="J427" t="n" s="4">
+        <v>9.96</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F428" s="2"/>
+      <c r="G428" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="H428" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I428" t="n" s="4">
+        <v>9.96</v>
+      </c>
+      <c r="J428" s="3"/>
+    </row>
+    <row r="429">
+      <c r="I429" t="n" s="5">
+        <v>9.96</v>
+      </c>
+      <c r="J429" t="n" s="5">
+        <v>9.96</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="B431" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C431" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D431" s="2"/>
+      <c r="E431" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F431" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="G431" s="2"/>
+      <c r="H431" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I431" s="3"/>
+      <c r="J431" t="n" s="4">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+      <c r="E432" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F432" s="2"/>
+      <c r="G432" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="H432" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I432" t="n" s="4">
+        <v>58.37</v>
+      </c>
+      <c r="J432" s="3"/>
+    </row>
+    <row r="433">
+      <c r="I433" t="n" s="5">
+        <v>58.37</v>
+      </c>
+      <c r="J433" t="n" s="5">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="B435" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C435" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D435" s="2"/>
+      <c r="E435" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F435" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="G435" s="2"/>
+      <c r="H435" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I435" s="3"/>
+      <c r="J435" t="n" s="4">
+        <v>186.75</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+      <c r="E436" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F436" s="2"/>
+      <c r="G436" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="H436" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I436" t="n" s="4">
+        <v>186.75</v>
+      </c>
+      <c r="J436" s="3"/>
+    </row>
+    <row r="437">
+      <c r="I437" t="n" s="5">
+        <v>186.75</v>
+      </c>
+      <c r="J437" t="n" s="5">
+        <v>186.75</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="B439" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C439" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D439" s="2"/>
+      <c r="E439" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F439" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="G439" s="2"/>
+      <c r="H439" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I439" s="3"/>
+      <c r="J439" t="n" s="4">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F440" s="2"/>
+      <c r="G440" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="H440" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I440" t="n" s="4">
+        <v>58.37</v>
+      </c>
+      <c r="J440" s="3"/>
+    </row>
+    <row r="441">
+      <c r="I441" t="n" s="5">
+        <v>58.37</v>
+      </c>
+      <c r="J441" t="n" s="5">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="B443" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C443" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D443" s="2"/>
+      <c r="E443" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F443" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G443" s="2"/>
+      <c r="H443" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I443" s="3"/>
+      <c r="J443" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+      <c r="E444" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F444" s="2"/>
+      <c r="G444" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H444" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I444" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="J444" s="3"/>
+    </row>
+    <row r="445">
+      <c r="I445" t="n" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J445" t="n" s="5">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="B447" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C447" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D447" s="2"/>
+      <c r="E447" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F447" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G447" s="2"/>
+      <c r="H447" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I447" s="3"/>
+      <c r="J447" t="n" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="B448" s="2"/>
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+      <c r="E448" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F448" s="2"/>
+      <c r="G448" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="H448" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I448" t="n" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="J448" s="3"/>
+    </row>
+    <row r="449">
+      <c r="I449" t="n" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="J449" t="n" s="5">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="B451" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C451" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D451" s="2"/>
+      <c r="E451" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F451" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="G451" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="H451" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I451" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="J451" s="3"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
+      <c r="H452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I452" s="3"/>
+      <c r="J452" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="I453" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J453" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="B455" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C455" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D455" s="2"/>
+      <c r="E455" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F455" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="G455" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H455" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I455" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+      <c r="J455" s="3"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="2"/>
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+      <c r="E456" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F456" s="2"/>
+      <c r="G456" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="H456" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I456" s="3"/>
+      <c r="J456" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="I457" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="J457" t="n" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="B459" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C459" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D459" s="2"/>
+      <c r="E459" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F459" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G459" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H459" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I459" s="3"/>
+      <c r="J459" t="n" s="4">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="B460" s="2"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="F460" s="2"/>
+      <c r="G460" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H460" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I460" t="n" s="4">
+        <v>43.75</v>
+      </c>
+      <c r="J460" s="3"/>
+    </row>
+    <row r="461">
+      <c r="I461" t="n" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="J461" t="n" s="5">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="6">
+        <v>173</v>
+      </c>
+      <c r="I463" t="n" s="5">
+        <v>22971.43</v>
+      </c>
+      <c r="J463" t="n" s="5">
+        <v>22971.43</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B466"/>
+      <c r="C466"/>
+      <c r="D466"/>
+      <c r="E466"/>
+      <c r="F466"/>
+      <c r="G466"/>
+      <c r="H466"/>
+      <c r="I466"/>
+      <c r="J466"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A422:J422"/>
+    <mergeCell ref="A466:J466"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
